--- a/evaluation/results/autoencoder/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/autoencoder/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.6432584269662921</v>
+        <v>0.647003745318352</v>
       </c>
       <c r="C2">
-        <v>0.5874285714285714</v>
+        <v>0.5905420991926182</v>
       </c>
       <c r="D2">
-        <v>0.9625468164794008</v>
+        <v>0.9588014981273408</v>
       </c>
       <c r="E2">
-        <v>0.7295954577714692</v>
+        <v>0.7309064953604568</v>
       </c>
       <c r="F2">
-        <v>0.8535370308867486</v>
+        <v>0.8524808524808525</v>
       </c>
       <c r="G2">
-        <v>0.9394727592267136</v>
+        <v>0.9363438137441091</v>
       </c>
       <c r="H2">
-        <v>0.7860013466313175</v>
+        <v>0.7865799772755966</v>
       </c>
       <c r="I2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.8963730569948186</v>
+        <v>0.8905472636815921</v>
       </c>
       <c r="C2">
-        <v>0.3239700374531835</v>
+        <v>0.3352059925093633</v>
       </c>
       <c r="D2">
-        <v>0.4759284731774415</v>
+        <v>0.4870748299319728</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.5874285714285714</v>
+        <v>0.5905420991926182</v>
       </c>
       <c r="C3">
-        <v>0.9625468164794008</v>
+        <v>0.9588014981273408</v>
       </c>
       <c r="D3">
-        <v>0.7295954577714692</v>
+        <v>0.7309064953604568</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.6432584269662921</v>
+        <v>0.647003745318352</v>
       </c>
       <c r="C4">
-        <v>0.6432584269662921</v>
+        <v>0.647003745318352</v>
       </c>
       <c r="D4">
-        <v>0.6432584269662921</v>
+        <v>0.647003745318352</v>
       </c>
       <c r="E4">
-        <v>0.6432584269662921</v>
+        <v>0.647003745318352</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.741900814211695</v>
+        <v>0.7405446814371052</v>
       </c>
       <c r="C5">
-        <v>0.6432584269662922</v>
+        <v>0.647003745318352</v>
       </c>
       <c r="D5">
-        <v>0.6027619654744554</v>
+        <v>0.6089906626462148</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7419008142116951</v>
+        <v>0.7405446814371052</v>
       </c>
       <c r="C6">
-        <v>0.6432584269662921</v>
+        <v>0.647003745318352</v>
       </c>
       <c r="D6">
-        <v>0.6027619654744554</v>
+        <v>0.6089906626462148</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C2">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
